--- a/Font3x8.xlsx
+++ b/Font3x8.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="0" windowWidth="20430" windowHeight="10380"/>
+    <workbookView xWindow="4800" yWindow="0" windowWidth="20430" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="7 Seg 3x8 0" sheetId="3" r:id="rId1"/>
@@ -383,9 +383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2177,7 +2175,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:K26 M1:Q26 S1:W26 Y1:AC26 AE1:AI26">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>G1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2191,7 +2189,7 @@
   <dimension ref="A1:AK27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,9 +2248,7 @@
       <c r="U1" s="1">
         <v>2</v>
       </c>
-      <c r="V1" s="1">
-        <v>2</v>
-      </c>
+      <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1" t="s">
         <v>0</v>
@@ -2374,7 +2370,7 @@
       </c>
       <c r="D3" t="str">
         <f>"0x"&amp;DEC2HEX(IF(V8&lt;&gt;"",128,0) + IF(V7&lt;&gt;"",64,0) + IF(V6&lt;&gt;"",32,0) + IF(V5&lt;&gt;"",16,0) + IF(V4&lt;&gt;"",8,0) + IF(V3&lt;&gt;"",4,0) + IF(V2&lt;&gt;"",2,0) + IF(V1&lt;&gt;"",1,0),2)&amp;", "</f>
-        <v xml:space="preserve">0x8F, </v>
+        <v xml:space="preserve">0x86, </v>
       </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
@@ -2484,9 +2480,7 @@
       <c r="U4" s="1">
         <v>2</v>
       </c>
-      <c r="V4" s="1">
-        <v>2</v>
-      </c>
+      <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1" t="s">
         <v>0</v>
@@ -2606,7 +2600,7 @@
       </c>
       <c r="D6" t="str">
         <f>"0x"&amp;DEC2HEX(IF(J17&lt;&gt;"",128,0) + IF(J16&lt;&gt;"",64,0) + IF(J15&lt;&gt;"",32,0) + IF(J14&lt;&gt;"",16,0) + IF(J13&lt;&gt;"",8,0) + IF(J12&lt;&gt;"",4,0) + IF(J11&lt;&gt;"",2,0) + IF(J10&lt;&gt;"",1,0),2)&amp;", "</f>
-        <v xml:space="preserve">0xF1, </v>
+        <v xml:space="preserve">0x71, </v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -2672,7 +2666,7 @@
       </c>
       <c r="B7" t="str">
         <f>"0x"&amp;DEC2HEX(IF(N17&lt;&gt;"",128,0) + IF(N16&lt;&gt;"",64,0) + IF(N15&lt;&gt;"",32,0) + IF(N14&lt;&gt;"",16,0) + IF(N13&lt;&gt;"",8,0) + IF(N12&lt;&gt;"",4,0) + IF(N11&lt;&gt;"",2,0) + IF(N10&lt;&gt;"",1,0),2)&amp;", "</f>
-        <v xml:space="preserve">0xFF, </v>
+        <v xml:space="preserve">0x7E, </v>
       </c>
       <c r="C7" t="str">
         <f>"0x"&amp;DEC2HEX(IF(O17&lt;&gt;"",128,0) + IF(O16&lt;&gt;"",64,0) + IF(O15&lt;&gt;"",32,0) + IF(O14&lt;&gt;"",16,0) + IF(O13&lt;&gt;"",8,0) + IF(O12&lt;&gt;"",4,0) + IF(O11&lt;&gt;"",2,0) + IF(O10&lt;&gt;"",1,0),2)&amp;", "</f>
@@ -2914,9 +2908,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="1">
-        <v>6</v>
-      </c>
+      <c r="N10" s="1"/>
       <c r="O10" s="1">
         <v>6</v>
       </c>
@@ -3413,16 +3405,11 @@
       <c r="I17" s="1">
         <v>5</v>
       </c>
-      <c r="J17" s="1">
-        <v>5</v>
-      </c>
       <c r="L17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M17" s="1"/>
-      <c r="N17" s="1">
-        <v>6</v>
-      </c>
+      <c r="N17" s="1"/>
       <c r="O17" s="1">
         <v>6</v>
       </c>
@@ -3939,7 +3926,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:K26 M1:Q26 S1:W26 Y1:AC26 AE1:AI26">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>G1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
